--- a/result.xlsx
+++ b/result.xlsx
@@ -46,7 +46,7 @@
     <t>29.11</t>
   </si>
   <si>
-    <t>63.90</t>
+    <t>128.67</t>
   </si>
   <si>
     <t>2549</t>
@@ -58,7 +58,7 @@
     <t>24.08</t>
   </si>
   <si>
-    <t>58.29</t>
+    <t>117.45</t>
   </si>
   <si>
     <t>2550</t>
@@ -70,7 +70,7 @@
     <t>25.73</t>
   </si>
   <si>
-    <t>60.20</t>
+    <t>121.33</t>
   </si>
   <si>
     <t>2551</t>
@@ -82,7 +82,7 @@
     <t>27.50</t>
   </si>
   <si>
-    <t>60.27</t>
+    <t>121.46</t>
   </si>
   <si>
     <t>2552</t>
@@ -94,7 +94,7 @@
     <t>26.93</t>
   </si>
   <si>
-    <t>60.21</t>
+    <t>121.38</t>
   </si>
   <si>
     <t>2553</t>
@@ -106,7 +106,7 @@
     <t>26.41</t>
   </si>
   <si>
-    <t>59.52</t>
+    <t>120.06</t>
   </si>
   <si>
     <t>2554</t>
@@ -118,7 +118,7 @@
     <t>27.54</t>
   </si>
   <si>
-    <t>60.92</t>
+    <t>122.91</t>
   </si>
   <si>
     <t>2555</t>
@@ -130,7 +130,7 @@
     <t>28.79</t>
   </si>
   <si>
-    <t>62.62</t>
+    <t>126.35</t>
   </si>
   <si>
     <t>2556</t>
@@ -142,7 +142,7 @@
     <t>26.08</t>
   </si>
   <si>
-    <t>61.37</t>
+    <t>123.96</t>
   </si>
   <si>
     <t>2557</t>
@@ -154,7 +154,7 @@
     <t>27.13</t>
   </si>
   <si>
-    <t>61.72</t>
+    <t>124.21</t>
   </si>
 </sst>
 </file>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project psit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>จำนวนคนฆ่าตัวตายต่อประชากรล้านคน</t>
   </si>
@@ -155,25 +160,33 @@
   </si>
   <si>
     <t>124.21</t>
+  </si>
+  <si>
+    <t>2558(Predict)</t>
+  </si>
+  <si>
+    <t>95.85</t>
+  </si>
+  <si>
+    <t>122.78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -189,16 +202,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -486,25 +508,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -524,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -544,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -564,7 +589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -584,7 +609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -604,7 +629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -624,7 +649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -644,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -664,7 +689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -684,7 +709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -704,7 +729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -722,12 +747,32 @@
       </c>
       <c r="F12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project psit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
-  <si>
-    <t>จำนวนคนฆ่าตัวตายต่อประชากรล้านคน</t>
-  </si>
-  <si>
-    <t>ปี(ชาย)</t>
-  </si>
-  <si>
-    <t>ผู้ชาย</t>
-  </si>
-  <si>
-    <t>ปี(หญิง)</t>
-  </si>
-  <si>
-    <t>ผู้หญิง</t>
-  </si>
-  <si>
-    <t>ปี(รวม)</t>
-  </si>
-  <si>
-    <t>รวม</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+  <si>
+    <t>Number of suicides per million population.</t>
+  </si>
+  <si>
+    <t>Years(man)</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Years(woman)</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Years(total)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>2548</t>
@@ -174,19 +169,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -202,25 +198,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -508,28 +495,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -569,7 +553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -589,7 +573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -609,7 +593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -629,7 +613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -649,7 +633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -669,7 +653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -689,7 +673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -709,7 +693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -729,7 +713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -749,7 +733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -773,6 +757,6 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -157,7 +157,7 @@
     <t>124.21</t>
   </si>
   <si>
-    <t>2558(Predict)</t>
+    <t>2558</t>
   </si>
   <si>
     <t>95.85</t>
